--- a/docs/PST1/PST1_05.08.24_output.xlsx
+++ b/docs/PST1/PST1_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2421 +505,2927 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730741095.9500592</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730741096.0028903</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730741095.9500592.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730741096.0028903.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.57</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.34</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2300000000000182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730741096.8550267</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730741099.8386998</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730741096.8550267.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730741099.8386998.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.93</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.72</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2099999999999795</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730741101.9328263</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1730741101.9328263.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1730741101.9328263.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.79</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>275.69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2.100000000000023</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.76</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730741107.6865244</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730741107.8255217</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741107.6865244.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741107.8255217.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>128.11</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>128.01</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730741108.107759</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730741109.1233482</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741108.107759.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741109.1233482.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>127.9</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>127.68</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730741109.1392775</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730741110.2853143</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741109.1392775.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741110.2853143.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>127.68</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>127.25</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.4300000000000068</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730741110.3002744</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730741112.6610022</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741110.3002744.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741112.6610022.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>127.25</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>127.91</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.6599999999999966</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730741112.676932</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730741113.391858</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741112.676932.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741113.391858.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.91</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>128.17</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730741115.7682145</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730741116.9509654</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741115.7682145.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741116.9509654.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>127.85</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>127.61</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.2399999999999949</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730741116.966896</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730741117.4668121</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741116.966896.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730741117.4668121.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>127.61</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>127.48</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730741117.5468662</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730741118.2029288</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730741117.5468662.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730741118.2029288.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6438.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6419</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>19.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730741119.9626262</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730741120.68679</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730741119.9626262.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730741120.68679.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6423</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6398</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>25</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730741121.3439722</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730741121.8492515</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730741121.3439722.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730741121.8492515.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6387.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6366.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>21</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730741129.270114</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1730741129.270114.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1730741129.270114.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6409</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>6394.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730741132.9181058</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730741134.3449528</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730741132.9181058.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730741134.3449528.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>496.25</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>496.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730741136.5618765</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730741137.3543594</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730741136.5618765.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730741137.3543594.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>496.95</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>497.65</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730741137.7223775</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730741140.0332298</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730741137.7223775.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730741140.0332298.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>497.9</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>495.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730741140.6798239</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1730741140.6798239.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1730741140.6798239.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>494.85</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.950000000000045</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.39</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730741142.6607592</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730741143.2352238</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730741142.6607592.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730741143.2352238.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>224.41</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>223.91</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730741145.8549023</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730741146.173053</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730741145.8549023.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730741146.173053.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>223.22</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>222.89</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3300000000000125</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730741148.5676045</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730741149.080341</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730741148.5676045.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730741149.080341.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>224.66</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>224.89</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.2299999999999898</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730741149.9724188</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730741152.6834974</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730741149.9724188.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730741152.6834974.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>225</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>224.02</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.9799999999999898</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730741153.3623688</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730741155.175085</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741153.3623688.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741155.175085.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1007.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1005.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2.199999999999932</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730741155.1910422</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730741155.9197404</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741155.1910422.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741155.9197404.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1005.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1006.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730741158.1125941</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730741158.281273</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741158.1125941.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741158.281273.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>999.6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1004.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>4.799999999999955</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730741159.2708638</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730741159.3995192</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741159.2708638.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741159.3995192.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1008</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1008.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730741160.0862567</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730741160.9233048</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741160.0862567.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741160.9233048.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1008.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1009.4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730741162.5443456</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730741162.9842143</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741162.5443456.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730741162.9842143.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1007.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1008</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730741165.588081</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730741166.2614803</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1730741165.588081.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1730741166.2614803.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>11.928</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>11.922</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.006000000000000227</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730741176.7447972</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730741176.7447972.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730741176.7447972.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>123.94</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>124.14</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730741190.771589</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730741191.4236047</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730741190.771589.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730741191.4236047.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>160.58</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>161.06</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730741195.4822962</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1730741195.4822962.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1730741195.4822962.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>160.56</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>160.56</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730741199.6248844</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730741199.8921998</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730741199.6248844.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730741199.8921998.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>48.655</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>48.715</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730741204.1365268</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1730741204.1365268.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1730741204.1365268.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>49.16</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>48.845</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.3149999999999977</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.64</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730741207.1973197</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730741207.793758</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730741207.1973197.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730741207.793758.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1385</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1382.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730741216.7747478</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1730741216.7747478.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1730741216.7747478.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1378.4</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1375.4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730741221.3567853</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730741222.2213244</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730741221.3567853.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730741222.2213244.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.18</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>59.15</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730741223.3333242</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730741223.4300656</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730741223.3333242.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730741223.4300656.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>58.96</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>58.83</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730741227.9907334</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730741227.9907334.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730741227.9907334.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>59.58</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>59.38</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.1999999999999957</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.34</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730741240.6216984</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730741240.9857554</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SELG1730741240.6216984.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SELG1730741240.9857554.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>56.16</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>55.78</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730741244.1357663</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1730741244.1357663.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/SELG1730741244.1357663.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>56.11</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>55.96</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.1499999999999986</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.27</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730741250.0177565</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730741250.0726106</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741250.0177565.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741250.0726106.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>139.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>139.76</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730741250.212829</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730741251.0623336</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741250.212829.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741251.0623336.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>139.72</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>139.8</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730741252.0932055</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730741255.8517642</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741252.0932055.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741255.8517642.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>139.36</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>142.04</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-2.679999999999978</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730741255.8676925</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730741256.8617833</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741255.8676925.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741256.8617833.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>142.04</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>142.44</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730741257.8541582</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730741259.1472285</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741257.8541582.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730741259.1472285.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>141.76</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>141.46</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2999999999999829</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730741261.8332055</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730741262.315914</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730741261.8332055.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730741262.315914.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>19.949</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>19.936</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.01300000000000168</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730741265.600383</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730741265.9639459</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730741265.600383.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730741265.9639459.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>19.949</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>19.922</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02700000000000102</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730741265.9809015</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730741267.3046646</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730741265.9809015.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730741267.3046646.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>19.922</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>19.936</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.01399999999999935</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730741267.700369</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1730741267.700369.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1730741267.700369.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>19.978</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>19.761</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.2170000000000023</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1.09</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730741274.4234664</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730741276.4681506</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730741274.4234664.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730741276.4681506.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>659.25</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>659.25</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2912,406 +3433,499 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730741276.4841168</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730741276.8601034</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730741276.4841168.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730741276.8601034.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>659.25</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>661.55</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-2.299999999999955</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730741280.3825405</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730741280.920076</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730741280.3825405.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730741280.920076.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>659.9</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>658.15</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-1.75</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730741297.1074362</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730741298.18755</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/FEES1730741297.1074362.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/FEES1730741298.18755.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>0.09562000000000001</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.095</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.0006200000000000094</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730741302.8391428</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730741303.6587167</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730741302.8391428.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730741303.6587167.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>95.22</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>94.61</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.6099999999999994</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730741303.6746469</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1730741303.6746469.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1730741303.6746469.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>94.61</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730741307.8099768</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730741307.903725</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741307.8099768.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MXI1730741307.903725.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>2894.75</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>2887.6</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>7.150000000000091</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730741313.479822</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1730741313.479822.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/MXI1730741313.479822.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>2904</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>2888</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-16</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.5499999999999999</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730741316.2683384</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730741316.9126444</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730741316.2683384.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730741316.9126444.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>11.884</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>11.893</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.009000000000000341</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730741316.9295726</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730741316.9295726.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730741316.9295726.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>11.893</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-0.06700000000000017</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.5599999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3324,7 +3938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3348,6 +3962,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3361,6 +3990,15 @@
       <c r="C2" t="n">
         <v>7</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.08857142857142719</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3374,6 +4012,15 @@
       <c r="C3" t="n">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>1.499999999999981</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3387,19 +4034,37 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.563999999999993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08000000000001251</v>
+        <v>-0.1630000000000003</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.04075000000000006</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3408,75 +4073,129 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.5</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.049999999999955</v>
+        <v>-3.800000000000068</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.9500000000000171</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.850000000000023</v>
+        <v>0.08000000000001251</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.02000000000000313</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05400000000000205</v>
+        <v>-0.03999999999999204</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.01333333333333068</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.06999999999999995</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1600000000000037</v>
+        <v>-2.079999999999984</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.693333333333328</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02000000000003865</v>
+        <v>-4.049999999999955</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.349999999999985</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.6200000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="12">
@@ -3486,10 +4205,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6099999999999994</v>
+        <v>0.730000000000004</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.365000000000002</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="13">
@@ -3499,10 +4227,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06000000000000227</v>
+        <v>-0.375</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.1875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="14">
@@ -3512,10 +4249,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.150000000000091</v>
+        <v>-8.849999999999909</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-4.424999999999955</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="15">
@@ -3528,85 +4274,148 @@
         <v>0.4799999999999898</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2399999999999949</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0006200000000000094</v>
+        <v>-0.05799999999999983</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.02899999999999991</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.4799999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.009000000000000341</v>
+        <v>0.2299999999999969</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1149999999999984</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4099999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3799999999999955</v>
+        <v>-0.7999999999999545</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006000000000000227</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.200000000000045</v>
+        <v>-0.0006200000000000094</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.0006200000000000094</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.65</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.006000000000000227</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.006000000000000227</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="22">
@@ -3621,6 +4430,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
